--- a/medicine/Soins infirmiers et profession infirmière/1941_en_santé_et_médecine/1941_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1941_en_santé_et_médecine/1941_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1941_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1941_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1941 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1941_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1941_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>20 février : le microbiologiste polonais Ludwik Hirszfeld est forcé de s'installer dans le ghetto de Varsovie avec sa femme et sa fille. Il y organise des mesures antiépidémiques et des campagnes de vaccination contre le typhus et la typhoïde, en même temps qu'il enseigne la médecine.
-Le microbiologiste américain d'origine russe Selman Waksman donne le nom d'« antibiotiques » aux médicaments capables de détruire les bactéries[1].
-Découverte par l'Américain Russel Marker de la plante qui contient l'hormone progestérone qui sera commercialisée comme pilule contraceptive en 1960[2].
+Le microbiologiste américain d'origine russe Selman Waksman donne le nom d'« antibiotiques » aux médicaments capables de détruire les bactéries.
+Découverte par l'Américain Russel Marker de la plante qui contient l'hormone progestérone qui sera commercialisée comme pilule contraceptive en 1960.
 La vitamine E (alpha tocophérol) pourra désormais être prise sous forme de capsule au lieu d'injection.
 Le procédé de surcongélation, développé en 1934 pour les besoins de la médecine, est appliqué aux produits alimentaires dont le jus d'orange congelé pour abreuver les soldats.
 3 % des adultes américains ont la syphilis.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1941_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1941_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>6 août : Jean-Claude Étienne (mort en 2017), professeur agrégé de médecine et homme politique français.</t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1941_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1941_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 février : Auguste Béhal (né en 1859), pharmacien et chimiste français.
-17 juillet : Jean Auriac (né en 1906), médecin et résistant français[3], titulaire d'une chaire à la fac de Bordeaux, il se suicidera au cyanure pour protéger les membres de son groupe de Résistance[4]
+17 juillet : Jean Auriac (né en 1906), médecin et résistant français, titulaire d'une chaire à la fac de Bordeaux, il se suicidera au cyanure pour protéger les membres de son groupe de Résistance
 6 septembre : Hastings Gilford (né en 1861), chirurgien anglais.
 9 septembre : Hans Spemann (né en 1869), embryologiste allemand, prix Nobel de physiologie ou médecine de 1935.</t>
         </is>
